--- a/ad_warn_data/Aerodrome_Warnings_Table.xlsx
+++ b/ad_warn_data/Aerodrome_Warnings_Table.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -49,9 +53,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -422,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,435 +447,445 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>क्र. सं. / Sr.No.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>तत्त्व / Elements</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>विमान क्षेत्र चेतावनियों की सं. / Warning no 1 Warning no 2................ Warning no. (Issue date/Issue Time UTC)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>रेंज के अंतगर्द आने वाले (पारस) मामलों की प्रतिशतता अथवा सही होने की प्रतिशतता / % of cases within range or occurrence (% correct)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>वास्तविक मौसम समयावधि के साथ जिसके लिये चेतावनी जारी नहीं की गयी थी / Actual weather with duration for which no warning was issued</t>
+          <t>Aerodrome warning for station VABB for June 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>क्र. सं. / Sr.No.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>तत्त्व / Elements</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>विमान क्षेत्र चेतावनियों की सं. / Warning no 1 Warning no 2................ Warning no. (Issue date/Issue Time UTC)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>रेंज के अंतगर्द आने वाले (पारस) मामलों की प्रतिशतता अथवा सही होने की प्रतिशतता / % of cases within range or occurrence (% correct)</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>वास्तविक मौसम समयावधि के साथ जिसके लिये चेतावनी जारी नहीं की गयी थी / Actual weather with duration for which no warning was issued</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>उष्णकटिबंधीय चक्रवात / Tropical cyclone</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>गर्जन सुनामी / Thunderstorms</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>03/1230,03/1700,04/0415,04/0830,05/0830,06/0545,06/1000,11/2000,12/0500,12/0900,12/1730,12/2130,13/0300,13/1245,13/1645,13/2030,14/1230,14/1615,14/2015,15/0015,15/0845,15/1230,15/1645,15/2030,15/2315,16/0130,16/0300,16/0930,16/1030,16/1430,17/1830,17/2230,17/2230,18/0230,18/0630,18/1115,18/1400,18/1500,18/1800,18/2200,19/0200,19/0600,19/1400,20/0200,20/0600,20/1000,21/2200,23/0000,23/0400,23/0800,23/1200,23/1600,23/2000,23/0000,23/0400,23/0800,23/1200,23/1600,23/2000,24/0000,27/0030,27/0430,27/0830,27/1230,28/1350,30/2030</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>89%</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>03/1230,03/1700,04/0415,04/0830,05/0830,06/0545,06/1000,11/2000,12/0500,12/0900,12/1730,12/2130,13/0300,13/1245,13/1645,13/2030,14/1230,14/1615,14/2015,15/0015,15/0845,15/1230,15/1645,15/2030,15/2315,16/0130,16/0300,16/0930,16/1030,16/1430,17/1830,17/2230,17/2230,18/0230,18/0630,18/1115,18/1400,18/1500,18/1800,18/2200,19/0200,19/0600,19/1400,20/0200,20/0600,20/1000,21/2200,27/0030,28/1350,28/1830</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>ओला / Hail</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>बर्फ / Snow</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>हिमवर्षा / Freezing precipitation</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>पाला या शीत / Hoar Frost or rime</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>7.</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>धूल भरी आँधी / Dust storm</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>8.</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>रेतीली आँधी / Sandstorm</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>9.</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>उठती रेत या धूल / Rising sand or dust</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>10.</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>प्रबल सतही पवन तथा झोंके / Strong surface wind and gusts
 गति / Speed</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>01/0330,01/0730,01/1145,01/1600,01/2015,02/0215,02/0600,02/1015,02/1400,02/2030,03/0030,03/0430,03/0830,03/1230,04/0330,04/0830,08/0830,09/0430,09/0830,11/0645,12/0500,12/0900,15/2315,16/0300,16/0930,16/1030,16/1830,16/2230,17/0230,17/0630,17/1030,17/1500,17/1830,17/2230,17/2230,18/0230,18/0630,18/1115,18/1500,18/1800,18/2200,19/0200,19/0600,19/1400,19/2200,20/0200,20/0600,20/1000,20/1400,20/1800,20/2200,21/0200,21/0600,21/1000,21/1400,21/1800,21/2200,23/0000,23/0400,23/0800,23/1200,23/1600,23/2000,23/0000,23/0400,23/0800,23/1200,23/1600,23/2000,24/0000,24/0400,24/1600,24/2000,27/0030,27/0430,27/0830,27/1230,27/1715,27/2100,28/0100,28/0500,28/0620,28/0950,28/1350,28/1830,29/0015,29/0415,29/1215,29/1615,29/2015,30/0015,30/0415,30/1230,30/1630,30/2030</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr"/>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>दिशा परिवर्तन / Direction change</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>11.</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>बवंडर / Squall
 दिशा / Direction
 गति / Speed</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>12.</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>पाला / Frost</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>13.</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>ज्वालामुखीय राख / Volcanic ash</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>14.</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>सुनामी / Tsunami</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ad_warn_data/Aerodrome_Warnings_Table.xlsx
+++ b/ad_warn_data/Aerodrome_Warnings_Table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aerodrome Warnings" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Aerodrome Warnings" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +447,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Aerodrome warning for station VABB for June 2025</t>
+          <t>Aerodrome warning for station VABB for July 2025</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>03/1230,03/1700,04/0415,04/0830,05/0830,06/0545,06/1000,11/2000,12/0500,12/0900,12/1730,12/2130,13/0300,13/1245,13/1645,13/2030,14/1230,14/1615,14/2015,15/0015,15/0845,15/1230,15/1645,15/2030,15/2315,16/0130,16/0300,16/0930,16/1030,16/1430,17/1830,17/2230,17/2230,18/0230,18/0630,18/1115,18/1400,18/1500,18/1800,18/2200,19/0200,19/0600,19/1400,20/0200,20/0600,20/1000,21/2200,27/0030,28/1350,28/1830</t>
+          <t>02/0600,02/1000,02/1400,06/0230,06/0645,14/0930,14/1330,14/1730,14/2130,15/0130,15/0530,21/0630,22/0430,22/0830,22/1200,22/1600,22/2000,23/0000,23/0400,25/0230,25/0600,25/1000,25/1400,26/1400,26/1800,26/2200</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>01/0330,01/0730,01/1145,01/1600,01/2015,02/0215,02/0600,02/1015,02/1400,02/2030,03/0030,03/0430,03/0830,03/1230,04/0330,04/0830,08/0830,09/0430,09/0830,11/0645,12/0500,12/0900,15/2315,16/0300,16/0930,16/1030,16/1830,16/2230,17/0230,17/0630,17/1030,17/1500,17/1830,17/2230,17/2230,18/0230,18/0630,18/1115,18/1500,18/1800,18/2200,19/0200,19/0600,19/1400,19/2200,20/0200,20/0600,20/1000,20/1400,20/1800,20/2200,21/0200,21/0600,21/1000,21/1400,21/1800,21/2200,23/0000,23/0400,23/0800,23/1200,23/1600,23/2000,23/0000,23/0400,23/0800,23/1200,23/1600,23/2000,24/0000,24/0400,24/1600,24/2000,27/0030,27/0430,27/0830,27/1230,27/1715,27/2100,28/0100,28/0500,28/0620,28/0950,28/1350,28/1830,29/0015,29/0415,29/1215,29/1615,29/2015,30/0015,30/0415,30/1230,30/1630,30/2030</t>
+          <t>01/0030,01/0430,01/1230,01/1630,01/2030,02/0100,02/0500,02/0600,02/1000,02/1400,02/1800,02/2215,03/0200,03/0600,03/1000,03/1400,03/1630,03/2000,04/0040,04/0445,04/0830,04/1230,04/1630,04/2030,05/0030,05/0430,05/0830,05/1230,05/1700,05/2100,06/0100,06/0230,06/0645,06/1045,06/1430,06/1830,06/2230,07/0230,07/0630,07/1030,07/1430,07/1830,07/2230,08/0230,08/0645,08/1030,08/1430,08/1830,08/2230,09/0130,09/0530,09/0930,09/1530,09/1930,10/1030,10/1430,10/1930,11/0200,11/1000,12/0300,12/0700,12/1100,12/1500,12/1900,12/2300,13/0315,13/0715,13/1115,13/1915,14/0130,14/0530,14/0930,14/1330,14/1730,14/2130,15/0130,15/0530,15/0930,15/1330,15/1730,16/0630,16/1030,16/1430,17/0900,18/0745,18/1145,19/1000,20/0500,20/0900,20/1300,22/0800,22/1200,22/1600,22/2000,23/0000,23/0630,23/1030,23/1430,23/1900,24/0145,24/0600,24/1000,24/1400,24/1800,24/2200,25/0200,25/0600,25/1000,25/1400,25/1800,25/2200,26/0200,26/0600,26/1000,26/1400,26/1800,26/2200,27/0200,27/0600,27/1000,27/1400,27/1800,27/2100,28/0100,28/0500,28/0900,28/1345,28/1730,28/2130,29/0130,29/0530,29/0930,29/1330,29/1730,29/2130,30/0130,30/0530,30/0930,30/1330,30/1730,30/2130,31/0130,31/0530,31/1030,31/1445,31/1900,31/2300</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">

--- a/ad_warn_data/Aerodrome_Warnings_Table.xlsx
+++ b/ad_warn_data/Aerodrome_Warnings_Table.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
